--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220425_110022.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220425_110022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="264">
   <si>
     <t>날짜</t>
   </si>
@@ -523,283 +523,163 @@
     <t>주호</t>
   </si>
   <si>
-    <t xml:space="preserve"> 봄여름가을겨울 (Still Life) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOVE DIVE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I NEVER DIE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑인가 봐 (사내맞선 OST 스페셜 트랙) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‘The ReVe Festival 2022 - Feel My Rhythm’ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 취중고백 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GANADARA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LOVE me </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 듣고 싶을까 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신사와 아가씨 OST Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INVU - The 3rd Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Seoul </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조각집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ˣ‿ˣ (SMiLEY) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 다정히 내 이름을 부르면 (경서예지 x 전건호) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신호등 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELEVEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> STAY </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 정이라고 하자 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IM HERO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> abcdefu </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 내일은 미스터트롯 우승자 특전곡 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 눈이 오잖아(Feat.헤이즈) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쇼미더머니 10 Episode 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YOUNG-LUV.COM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IU 5th Album 'LILAC' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별빛 같은 나의 사랑아 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Next Level </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MSG워너비 1집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HERO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쇼미더머니 10 Episode 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 너를 생각해 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 나의 X에게 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Weekend </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Real Love </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> strawberry moon </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뽕숭아학당 PART23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조영수 리메이크 프로젝트 Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사랑의 콜센타 PART39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 호랑수월가 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 우리들의 블루스 OST Part 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '키스 먼저 할까요?' OST Part.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Butter </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love poem </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That's Hilarious </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 세 번째 '고백' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 항해 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Glitch Mode - The 2nd Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dynamite (DayTime Version) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스물다섯 스물하나 OST Part 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 너의 번호를 누르고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별에서 온 그대 (SBS 수목드라마) OST - Part.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Counting Stars </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 아무래도 난 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Step Back </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 그대가 있기에 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bipolar </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 밤편지 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 그 해 우리는 OST Part.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Red Moon : Beyond The Light </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 밤하늘의 별을 (2020) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 별거 없던 그 하루로 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dreams Come True - SM STATION </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스물다섯 스물하나 OST Part 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Goodbye, grief. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사계 (Four Seasons) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Savage - The 1st Mini Album </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 취기를 빌려 (취향저격 그녀 X 산들) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAPPEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 늦은 밤 너의 집 앞 골목길에서 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OHAYO MY NIGHT </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dear OHMYGIRL </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 최고의 사랑 OST - Part.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stronger (Deluxe Version) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 추억은 만남보다 이별에 남아 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 봄 사랑 벚꽃 말고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ZOOM </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NEXT EPISODE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Speak Your Mind  (Deluxe) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Butter / Permission to Dance </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 멜로가 체질 OST Part 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Darl+ing </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 비가 오는 날엔 (2021) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rollin' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 흰눈 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 그날에 나는 맘이 편했을까 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 밝게 빛나는 별이 되어 비춰줄게 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 자가격리 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 내가 아니라도 </t>
+    <t>I NEVER DIE</t>
+  </si>
+  <si>
+    <t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</t>
+  </si>
+  <si>
+    <t>‘The ReVe Festival 2022 - Feel My Rhythm’</t>
+  </si>
+  <si>
+    <t>GANADARA</t>
+  </si>
+  <si>
+    <t>신사와 아가씨 OST Part.2</t>
+  </si>
+  <si>
+    <t>INVU - The 3rd Album</t>
+  </si>
+  <si>
+    <t>조각집</t>
+  </si>
+  <si>
+    <t>ˣ‿ˣ (SMiLEY)</t>
+  </si>
+  <si>
+    <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
+  </si>
+  <si>
+    <t>STAY</t>
+  </si>
+  <si>
+    <t>정이라고 하자</t>
+  </si>
+  <si>
+    <t>IM HERO</t>
+  </si>
+  <si>
+    <t>abcdefu</t>
+  </si>
+  <si>
+    <t>내일은 미스터트롯 우승자 특전곡</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Episode 2</t>
+  </si>
+  <si>
+    <t>YOUNG-LUV.COM</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART56</t>
+  </si>
+  <si>
+    <t>IU 5th Album 'LILAC'</t>
+  </si>
+  <si>
+    <t>MSG워너비 1집</t>
+  </si>
+  <si>
+    <t>쇼미더머니 10 Episode 3</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART62</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART61</t>
+  </si>
+  <si>
+    <t>뽕숭아학당 PART23</t>
+  </si>
+  <si>
+    <t>조영수 리메이크 프로젝트 Part.2</t>
+  </si>
+  <si>
+    <t>사랑의 콜센타 PART39</t>
+  </si>
+  <si>
+    <t>우리들의 블루스 OST Part 3</t>
+  </si>
+  <si>
+    <t>'키스 먼저 할까요?' OST Part.3</t>
+  </si>
+  <si>
+    <t>That's Hilarious</t>
+  </si>
+  <si>
+    <t>세 번째 '고백'</t>
+  </si>
+  <si>
+    <t>항해</t>
+  </si>
+  <si>
+    <t>Glitch Mode - The 2nd Album</t>
+  </si>
+  <si>
+    <t>Dynamite (DayTime Version)</t>
+  </si>
+  <si>
+    <t>스물다섯 스물하나 OST Part 4</t>
+  </si>
+  <si>
+    <t>별에서 온 그대 (SBS 수목드라마) OST - Part.7</t>
+  </si>
+  <si>
+    <t>Counting Stars</t>
+  </si>
+  <si>
+    <t>Bipolar</t>
+  </si>
+  <si>
+    <t>그 해 우리는 OST Part.2</t>
+  </si>
+  <si>
+    <t>Red Moon : Beyond The Light</t>
+  </si>
+  <si>
+    <t>별거 없던 그 하루로</t>
+  </si>
+  <si>
+    <t>Dreams Come True - SM STATION</t>
+  </si>
+  <si>
+    <t>스물다섯 스물하나 OST Part 1</t>
+  </si>
+  <si>
+    <t>Goodbye, grief.</t>
+  </si>
+  <si>
+    <t>Savage - The 1st Mini Album</t>
+  </si>
+  <si>
+    <t>HAPPEN</t>
+  </si>
+  <si>
+    <t>Dear OHMYGIRL</t>
+  </si>
+  <si>
+    <t>최고의 사랑 OST - Part.4</t>
+  </si>
+  <si>
+    <t>Stronger (Deluxe Version)</t>
+  </si>
+  <si>
+    <t>NEXT EPISODE</t>
+  </si>
+  <si>
+    <t>Speak Your Mind  (Deluxe)</t>
+  </si>
+  <si>
+    <t>Butter / Permission to Dance</t>
+  </si>
+  <si>
+    <t>멜로가 체질 OST Part 3</t>
+  </si>
+  <si>
+    <t>Rollin'</t>
+  </si>
+  <si>
+    <t>자가격리</t>
   </si>
   <si>
     <t>YG</t>
@@ -1326,13 +1206,13 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="G2" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1349,13 +1229,13 @@
         <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1372,13 +1252,13 @@
         <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1395,13 +1275,13 @@
         <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1418,13 +1298,13 @@
         <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1441,13 +1321,13 @@
         <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1464,13 +1344,13 @@
         <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="G8" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1487,13 +1367,13 @@
         <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="G9" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1510,13 +1390,13 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="G10" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1533,13 +1413,13 @@
         <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1556,13 +1436,13 @@
         <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1579,13 +1459,13 @@
         <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="G13" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1602,13 +1482,13 @@
         <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G14" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1625,13 +1505,13 @@
         <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F15" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="G15" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1648,13 +1528,13 @@
         <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F16" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="G16" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1671,13 +1551,13 @@
         <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1694,13 +1574,13 @@
         <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1717,13 +1597,13 @@
         <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F19" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="G19" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1740,13 +1620,13 @@
         <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F20" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="G20" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1763,13 +1643,13 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1786,13 +1666,13 @@
         <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F22" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1809,13 +1689,13 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F23" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1832,13 +1712,13 @@
         <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1855,13 +1735,13 @@
         <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F25" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1878,13 +1758,13 @@
         <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F26" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1901,13 +1781,13 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F27" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1924,13 +1804,13 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F28" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G28" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1947,13 +1827,13 @@
         <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1970,13 +1850,13 @@
         <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1993,13 +1873,13 @@
         <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="G31" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2016,13 +1896,13 @@
         <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2039,13 +1919,13 @@
         <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="G33" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2062,13 +1942,13 @@
         <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2085,13 +1965,13 @@
         <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F35" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G35" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2108,13 +1988,13 @@
         <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="G36" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2131,13 +2011,13 @@
         <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="G37" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2154,13 +2034,13 @@
         <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="G38" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2177,13 +2057,13 @@
         <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G39" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2200,13 +2080,13 @@
         <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G40" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2223,13 +2103,13 @@
         <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="F41" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G41" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2246,13 +2126,13 @@
         <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F42" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G42" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2269,13 +2149,13 @@
         <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F43" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="G43" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2292,13 +2172,13 @@
         <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F44" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2315,13 +2195,13 @@
         <v>117</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F45" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G45" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2338,13 +2218,13 @@
         <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="G46" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2361,13 +2241,13 @@
         <v>135</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="F47" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="G47" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2384,13 +2264,13 @@
         <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F48" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="G48" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2407,13 +2287,13 @@
         <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="G49" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2430,13 +2310,13 @@
         <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="F50" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G50" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2453,13 +2333,13 @@
         <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="F51" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="G51" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2476,13 +2356,13 @@
         <v>111</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F52" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="G52" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2499,13 +2379,13 @@
         <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="F53" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="G53" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2522,13 +2402,13 @@
         <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="F54" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="G54" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2545,13 +2425,13 @@
         <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F55" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="G55" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2568,13 +2448,13 @@
         <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F56" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="G56" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2591,13 +2471,13 @@
         <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="G57" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2614,13 +2494,13 @@
         <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="G58" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2637,13 +2517,13 @@
         <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="F59" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="G59" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2660,13 +2540,13 @@
         <v>115</v>
       </c>
       <c r="E60" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F60" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="G60" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2683,13 +2563,13 @@
         <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="F61" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="G61" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2706,13 +2586,13 @@
         <v>144</v>
       </c>
       <c r="E62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" t="s">
         <v>226</v>
       </c>
-      <c r="F62" t="s">
-        <v>266</v>
-      </c>
       <c r="G62" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2729,13 +2609,13 @@
         <v>120</v>
       </c>
       <c r="E63" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="F63" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G63" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2752,13 +2632,13 @@
         <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="F64" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="G64" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2775,13 +2655,13 @@
         <v>115</v>
       </c>
       <c r="E65" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" t="s">
         <v>228</v>
       </c>
-      <c r="F65" t="s">
-        <v>268</v>
-      </c>
       <c r="G65" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2797,14 +2677,14 @@
       <c r="D66" t="s">
         <v>146</v>
       </c>
-      <c r="E66" t="s">
-        <v>229</v>
+      <c r="E66">
+        <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="G66" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2821,13 +2701,13 @@
         <v>120</v>
       </c>
       <c r="E67" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="F67" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G67" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2844,13 +2724,13 @@
         <v>147</v>
       </c>
       <c r="E68" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="G68" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2867,13 +2747,13 @@
         <v>148</v>
       </c>
       <c r="E69" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F69" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="G69" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2890,13 +2770,13 @@
         <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="F70" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="G70" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2913,13 +2793,13 @@
         <v>131</v>
       </c>
       <c r="E71" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="G71" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2936,13 +2816,13 @@
         <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="F72" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="G72" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2959,13 +2839,13 @@
         <v>129</v>
       </c>
       <c r="E73" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="F73" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="G73" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2982,13 +2862,13 @@
         <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="F74" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="G74" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3005,13 +2885,13 @@
         <v>152</v>
       </c>
       <c r="E75" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="F75" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="G75" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3028,13 +2908,13 @@
         <v>118</v>
       </c>
       <c r="E76" t="s">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="F76" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="G76" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3051,13 +2931,13 @@
         <v>129</v>
       </c>
       <c r="E77" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F77" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3074,13 +2954,13 @@
         <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="F78" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="G78" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3097,13 +2977,13 @@
         <v>154</v>
       </c>
       <c r="E79" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="F79" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G79" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3120,13 +3000,13 @@
         <v>145</v>
       </c>
       <c r="E80" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="F80" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="G80" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3143,13 +3023,13 @@
         <v>155</v>
       </c>
       <c r="E81" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="G81" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3166,13 +3046,13 @@
         <v>132</v>
       </c>
       <c r="E82" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="F82" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="G82" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3189,13 +3069,13 @@
         <v>120</v>
       </c>
       <c r="E83" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="F83" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G83" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3212,13 +3092,13 @@
         <v>156</v>
       </c>
       <c r="E84" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F84" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="G84" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3235,13 +3115,13 @@
         <v>157</v>
       </c>
       <c r="E85" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="F85" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="G85" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3258,13 +3138,13 @@
         <v>120</v>
       </c>
       <c r="E86" t="s">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="F86" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G86" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3281,13 +3161,13 @@
         <v>158</v>
       </c>
       <c r="E87" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="F87" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G87" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3304,13 +3184,13 @@
         <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="F88" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="G88" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3327,13 +3207,13 @@
         <v>159</v>
       </c>
       <c r="E89" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="F89" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="G89" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3350,13 +3230,13 @@
         <v>137</v>
       </c>
       <c r="E90" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="F90" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="G90" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3373,13 +3253,13 @@
         <v>160</v>
       </c>
       <c r="E91" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F91" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="G91" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3396,13 +3276,13 @@
         <v>161</v>
       </c>
       <c r="E92" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="F92" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="G92" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3419,13 +3299,13 @@
         <v>162</v>
       </c>
       <c r="E93" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="F93" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="G93" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3442,13 +3322,13 @@
         <v>154</v>
       </c>
       <c r="E94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" t="s">
         <v>255</v>
       </c>
-      <c r="F94" t="s">
-        <v>295</v>
-      </c>
       <c r="G94" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3465,13 +3345,13 @@
         <v>163</v>
       </c>
       <c r="E95" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="F95" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="G95" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3488,13 +3368,13 @@
         <v>164</v>
       </c>
       <c r="E96" t="s">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="F96" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="G96" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3511,13 +3391,13 @@
         <v>165</v>
       </c>
       <c r="E97" t="s">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="F97" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="G97" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3534,13 +3414,13 @@
         <v>120</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F98" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G98" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3557,13 +3437,13 @@
         <v>166</v>
       </c>
       <c r="E99" t="s">
-        <v>259</v>
+        <v>105</v>
       </c>
       <c r="F99" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="G99" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3580,13 +3460,13 @@
         <v>167</v>
       </c>
       <c r="E100" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="F100" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G100" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3603,13 +3483,13 @@
         <v>168</v>
       </c>
       <c r="E101" t="s">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="F101" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="G101" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220425_110022.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220425_110022.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-04-25</t>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220425_110022.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220425_110022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="265">
   <si>
     <t>사이트</t>
   </si>
@@ -733,7 +733,7 @@
     <t>해외</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -809,9 +809,6 @@
   </si>
   <si>
     <t>FNC</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1273,7 @@
         <v>226</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1302,7 +1299,7 @@
         <v>227</v>
       </c>
       <c r="H5" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1354,7 +1351,7 @@
         <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1380,7 +1377,7 @@
         <v>229</v>
       </c>
       <c r="H8" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1432,7 +1429,7 @@
         <v>231</v>
       </c>
       <c r="H10" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1458,7 +1455,7 @@
         <v>232</v>
       </c>
       <c r="H11" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1510,7 +1507,7 @@
         <v>233</v>
       </c>
       <c r="H13" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1536,7 +1533,7 @@
         <v>234</v>
       </c>
       <c r="H14" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1562,7 +1559,7 @@
         <v>235</v>
       </c>
       <c r="H15" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1588,7 +1585,7 @@
         <v>236</v>
       </c>
       <c r="H16" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1614,7 +1611,7 @@
         <v>237</v>
       </c>
       <c r="H17" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1666,7 +1663,7 @@
         <v>238</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1692,7 +1689,7 @@
         <v>239</v>
       </c>
       <c r="H20" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1718,7 +1715,7 @@
         <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1744,7 +1741,7 @@
         <v>238</v>
       </c>
       <c r="H22" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1770,7 +1767,7 @@
         <v>232</v>
       </c>
       <c r="H23" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1796,7 +1793,7 @@
         <v>237</v>
       </c>
       <c r="H24" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1822,7 +1819,7 @@
         <v>240</v>
       </c>
       <c r="H25" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1848,7 +1845,7 @@
         <v>241</v>
       </c>
       <c r="H26" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1874,7 +1871,7 @@
         <v>232</v>
       </c>
       <c r="H27" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1900,7 +1897,7 @@
         <v>234</v>
       </c>
       <c r="H28" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1926,7 +1923,7 @@
         <v>232</v>
       </c>
       <c r="H29" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1978,7 +1975,7 @@
         <v>231</v>
       </c>
       <c r="H31" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2004,7 +2001,7 @@
         <v>232</v>
       </c>
       <c r="H32" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2056,7 +2053,7 @@
         <v>242</v>
       </c>
       <c r="H34" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2082,7 +2079,7 @@
         <v>232</v>
       </c>
       <c r="H35" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2108,7 +2105,7 @@
         <v>243</v>
       </c>
       <c r="H36" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2160,7 +2157,7 @@
         <v>244</v>
       </c>
       <c r="H38" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2186,7 +2183,7 @@
         <v>234</v>
       </c>
       <c r="H39" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2212,7 +2209,7 @@
         <v>234</v>
       </c>
       <c r="H40" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2238,7 +2235,7 @@
         <v>232</v>
       </c>
       <c r="H41" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2264,7 +2261,7 @@
         <v>232</v>
       </c>
       <c r="H42" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2290,7 +2287,7 @@
         <v>226</v>
       </c>
       <c r="H43" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2316,7 +2313,7 @@
         <v>245</v>
       </c>
       <c r="H44" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2342,7 +2339,7 @@
         <v>232</v>
       </c>
       <c r="H45" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2368,7 +2365,7 @@
         <v>239</v>
       </c>
       <c r="H46" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2394,7 +2391,7 @@
         <v>246</v>
       </c>
       <c r="H47" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2420,7 +2417,7 @@
         <v>247</v>
       </c>
       <c r="H48" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2472,7 +2469,7 @@
         <v>234</v>
       </c>
       <c r="H50" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2498,7 +2495,7 @@
         <v>238</v>
       </c>
       <c r="H51" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2524,7 +2521,7 @@
         <v>227</v>
       </c>
       <c r="H52" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2628,7 +2625,7 @@
         <v>239</v>
       </c>
       <c r="H56" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2654,7 +2651,7 @@
         <v>233</v>
       </c>
       <c r="H57" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2680,7 +2677,7 @@
         <v>249</v>
       </c>
       <c r="H58" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2706,7 +2703,7 @@
         <v>250</v>
       </c>
       <c r="H59" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2758,7 +2755,7 @@
         <v>242</v>
       </c>
       <c r="H61" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2810,7 +2807,7 @@
         <v>234</v>
       </c>
       <c r="H63" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2836,7 +2833,7 @@
         <v>251</v>
       </c>
       <c r="H64" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2888,7 +2885,7 @@
         <v>238</v>
       </c>
       <c r="H66" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2914,7 +2911,7 @@
         <v>234</v>
       </c>
       <c r="H67" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2940,7 +2937,7 @@
         <v>252</v>
       </c>
       <c r="H68" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2966,7 +2963,7 @@
         <v>253</v>
       </c>
       <c r="H69" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2992,7 +2989,7 @@
         <v>254</v>
       </c>
       <c r="H70" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3018,7 +3015,7 @@
         <v>243</v>
       </c>
       <c r="H71" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3044,7 +3041,7 @@
         <v>255</v>
       </c>
       <c r="H72" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3122,7 +3119,7 @@
         <v>256</v>
       </c>
       <c r="H75" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3200,7 +3197,7 @@
         <v>244</v>
       </c>
       <c r="H78" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3226,7 +3223,7 @@
         <v>257</v>
       </c>
       <c r="H79" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3252,7 +3249,7 @@
         <v>251</v>
       </c>
       <c r="H80" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3278,7 +3275,7 @@
         <v>239</v>
       </c>
       <c r="H81" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3304,7 +3301,7 @@
         <v>244</v>
       </c>
       <c r="H82" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3330,7 +3327,7 @@
         <v>234</v>
       </c>
       <c r="H83" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3356,7 +3353,7 @@
         <v>238</v>
       </c>
       <c r="H84" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3382,7 +3379,7 @@
         <v>258</v>
       </c>
       <c r="H85" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3408,7 +3405,7 @@
         <v>234</v>
       </c>
       <c r="H86" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3434,7 +3431,7 @@
         <v>257</v>
       </c>
       <c r="H87" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3486,7 +3483,7 @@
         <v>238</v>
       </c>
       <c r="H89" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3538,7 +3535,7 @@
         <v>239</v>
       </c>
       <c r="H91" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3564,7 +3561,7 @@
         <v>239</v>
       </c>
       <c r="H92" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3616,7 +3613,7 @@
         <v>257</v>
       </c>
       <c r="H94" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3642,7 +3639,7 @@
         <v>260</v>
       </c>
       <c r="H95" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3668,7 +3665,7 @@
         <v>261</v>
       </c>
       <c r="H96" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3694,7 +3691,7 @@
         <v>262</v>
       </c>
       <c r="H97" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3720,7 +3717,7 @@
         <v>234</v>
       </c>
       <c r="H98" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3746,7 +3743,7 @@
         <v>239</v>
       </c>
       <c r="H99" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3772,7 +3769,7 @@
         <v>263</v>
       </c>
       <c r="H100" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3798,7 +3795,7 @@
         <v>264</v>
       </c>
       <c r="H101" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
